--- a/models/sifilis/data/lparametros.xlsx
+++ b/models/sifilis/data/lparametros.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="parametros" sheetId="1" r:id="rId1"/>
     <sheet name="Clasificacion Parametros" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">parametros!$B$1:$K$306</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">parametros!$E$1:$E$1074</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -154,7 +154,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="172">
   <si>
     <t>Tipo Parametro</t>
   </si>
@@ -443,9 +443,6 @@
     <t>Costo programático de la intervención</t>
   </si>
   <si>
-    <t>BRASIL</t>
-  </si>
-  <si>
     <t>COLOMBIA</t>
   </si>
   <si>
@@ -673,6 +670,9 @@
   <si>
     <t>Parametro</t>
   </si>
+  <si>
+    <t>BRAZIL</t>
+  </si>
 </sst>
 </file>
 
@@ -821,7 +821,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -888,6 +888,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1108,7 +1111,7 @@
   </sheetPr>
   <dimension ref="A1:Z1074"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -1132,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -2029,8 +2032,8 @@
       <c r="D34" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="E34" s="17" t="s">
-        <v>95</v>
+      <c r="E34" s="38" t="s">
+        <v>171</v>
       </c>
       <c r="F34" s="19">
         <v>0.05</v>
@@ -2067,8 +2070,8 @@
       <c r="D35" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="E35" s="17" t="s">
-        <v>95</v>
+      <c r="E35" s="38" t="s">
+        <v>171</v>
       </c>
       <c r="F35" s="19">
         <v>0</v>
@@ -2106,7 +2109,7 @@
         <v>91</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F36" s="19">
         <v>0.05</v>
@@ -2144,7 +2147,7 @@
         <v>94</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F37" s="19">
         <v>0</v>
@@ -2182,7 +2185,7 @@
         <v>91</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F38" s="19">
         <v>0.05</v>
@@ -2220,7 +2223,7 @@
         <v>94</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F39" s="19">
         <v>0</v>
@@ -2258,7 +2261,7 @@
         <v>91</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F40" s="19">
         <v>0.05</v>
@@ -2296,7 +2299,7 @@
         <v>94</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F41" s="19">
         <v>0</v>
@@ -2334,7 +2337,7 @@
         <v>91</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F42" s="19">
         <v>0.05</v>
@@ -2372,7 +2375,7 @@
         <v>94</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F43" s="19">
         <v>0</v>
@@ -2410,7 +2413,7 @@
         <v>91</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F44" s="19">
         <v>0.05</v>
@@ -2448,7 +2451,7 @@
         <v>94</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F45" s="19">
         <v>0</v>
@@ -2486,7 +2489,7 @@
         <v>91</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F46" s="19">
         <v>0.05</v>
@@ -2524,7 +2527,7 @@
         <v>94</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F47" s="19">
         <v>0</v>
@@ -2562,7 +2565,7 @@
         <v>91</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F48" s="19">
         <v>0.05</v>
@@ -2600,7 +2603,7 @@
         <v>94</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F49" s="19">
         <v>0</v>
@@ -2638,7 +2641,7 @@
         <v>91</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F50" s="19">
         <v>0.05</v>
@@ -2676,7 +2679,7 @@
         <v>94</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F51" s="19">
         <v>0</v>
@@ -2714,7 +2717,7 @@
         <v>91</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F52" s="19">
         <v>0.05</v>
@@ -2752,7 +2755,7 @@
         <v>94</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F53" s="19">
         <v>0</v>
@@ -2784,10 +2787,10 @@
         <v>8</v>
       </c>
       <c r="C54" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D54" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>92</v>
@@ -2802,10 +2805,10 @@
         <v>2025</v>
       </c>
       <c r="J54" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K54" s="11" t="s">
         <v>107</v>
-      </c>
-      <c r="K54" s="11" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:26" ht="13.2">
@@ -2814,10 +2817,10 @@
         <v>8</v>
       </c>
       <c r="C55" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D55" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>92</v>
@@ -2832,13 +2835,13 @@
         <v>2025</v>
       </c>
       <c r="I55" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J55" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K55" s="11" t="s">
         <v>111</v>
-      </c>
-      <c r="J55" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="K55" s="11" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:26" ht="13.2">
@@ -2847,10 +2850,10 @@
         <v>8</v>
       </c>
       <c r="C56" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D56" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>92</v>
@@ -2865,10 +2868,10 @@
         <v>2025</v>
       </c>
       <c r="J56" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K56" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="K56" s="11" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="57" spans="1:26" ht="13.2">
@@ -2877,10 +2880,10 @@
         <v>8</v>
       </c>
       <c r="C57" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D57" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>92</v>
@@ -2895,13 +2898,13 @@
         <v>2025</v>
       </c>
       <c r="I57" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J57" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K57" s="11" t="s">
         <v>119</v>
-      </c>
-      <c r="J57" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="K57" s="11" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:26" ht="13.2">
@@ -2910,10 +2913,10 @@
         <v>8</v>
       </c>
       <c r="C58" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D58" s="12" t="s">
         <v>121</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>122</v>
       </c>
       <c r="E58" s="17" t="s">
         <v>92</v>
@@ -2929,10 +2932,10 @@
       </c>
       <c r="I58" s="18"/>
       <c r="J58" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K58" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L58" s="18"/>
       <c r="M58" s="18"/>
@@ -2956,10 +2959,10 @@
         <v>8</v>
       </c>
       <c r="C59" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D59" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>92</v>
@@ -2974,10 +2977,10 @@
         <v>2025</v>
       </c>
       <c r="J59" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K59" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="K59" s="11" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:26" ht="13.2">
@@ -2986,10 +2989,10 @@
         <v>8</v>
       </c>
       <c r="C60" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D60" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>92</v>
@@ -3004,10 +3007,10 @@
         <v>2025</v>
       </c>
       <c r="J60" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="K60" s="11" t="s">
         <v>128</v>
-      </c>
-      <c r="K60" s="11" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="61" spans="1:26" ht="13.2">
@@ -3016,10 +3019,10 @@
         <v>8</v>
       </c>
       <c r="C61" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D61" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>92</v>
@@ -3034,22 +3037,22 @@
         <v>2025</v>
       </c>
       <c r="J61" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K61" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="K61" s="11" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="62" spans="1:26" ht="13.2">
       <c r="A62" s="1"/>
       <c r="B62" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C62" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="C62" s="24" t="s">
+      <c r="D62" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>92</v>
@@ -3064,22 +3067,22 @@
         <v>2025</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K62" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63" spans="1:26" ht="13.2">
       <c r="A63" s="1"/>
       <c r="B63" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C63" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D63" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>92</v>
@@ -3094,22 +3097,22 @@
         <v>2025</v>
       </c>
       <c r="J63" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K63" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:26" ht="13.2">
       <c r="A64" s="1"/>
       <c r="B64" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C64" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D64" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>92</v>
@@ -3124,22 +3127,22 @@
         <v>2025</v>
       </c>
       <c r="J64" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K64" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="13.2">
       <c r="A65" s="1"/>
       <c r="B65" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C65" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D65" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="E65" s="8" t="s">
         <v>92</v>
@@ -3154,22 +3157,22 @@
         <v>2025</v>
       </c>
       <c r="J65" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K65" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="13.2">
       <c r="A66" s="1"/>
       <c r="B66" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C66" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D66" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="E66" s="8" t="s">
         <v>92</v>
@@ -3184,22 +3187,22 @@
         <v>2025</v>
       </c>
       <c r="J66" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K66" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="13.2">
       <c r="A67" s="1"/>
       <c r="B67" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C67" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D67" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="E67" s="8" t="s">
         <v>92</v>
@@ -3215,13 +3218,13 @@
     <row r="68" spans="1:11" ht="13.2">
       <c r="A68" s="1"/>
       <c r="B68" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C68" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D68" s="10" t="s">
         <v>146</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>147</v>
       </c>
       <c r="E68" s="8" t="s">
         <v>92</v>
@@ -3240,13 +3243,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D69" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D69" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>95</v>
+      <c r="E69" s="38" t="s">
+        <v>171</v>
       </c>
       <c r="F69" s="9">
         <v>2528724</v>
@@ -3258,10 +3261,10 @@
         <v>2025</v>
       </c>
       <c r="J69" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K69" s="11" t="s">
         <v>107</v>
-      </c>
-      <c r="K69" s="11" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="13.2">
@@ -3270,13 +3273,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D70" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D70" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>95</v>
+      <c r="E70" s="38" t="s">
+        <v>171</v>
       </c>
       <c r="F70" s="9">
         <v>6.2</v>
@@ -3288,13 +3291,13 @@
         <v>2025</v>
       </c>
       <c r="I70" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J70" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K70" s="11" t="s">
         <v>111</v>
-      </c>
-      <c r="J70" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="K70" s="11" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="13.2">
@@ -3303,13 +3306,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D71" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D71" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>95</v>
+      <c r="E71" s="38" t="s">
+        <v>171</v>
       </c>
       <c r="F71" s="9">
         <v>3.2399999999999998E-2</v>
@@ -3321,10 +3324,10 @@
         <v>2025</v>
       </c>
       <c r="J71" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="K71" s="11" t="s">
         <v>148</v>
-      </c>
-      <c r="K71" s="11" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="13.2">
@@ -3333,13 +3336,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D72" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D72" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>95</v>
+      <c r="E72" s="38" t="s">
+        <v>171</v>
       </c>
       <c r="F72" s="9">
         <v>7.61</v>
@@ -3351,13 +3354,13 @@
         <v>2025</v>
       </c>
       <c r="I72" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J72" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K72" s="11" t="s">
         <v>119</v>
-      </c>
-      <c r="J72" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="K72" s="11" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="13.2">
@@ -3366,13 +3369,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>95</v>
+        <v>149</v>
+      </c>
+      <c r="E73" s="38" t="s">
+        <v>171</v>
       </c>
       <c r="F73" s="9">
         <v>76.2</v>
@@ -3385,10 +3388,10 @@
       </c>
       <c r="I73" s="18"/>
       <c r="J73" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K73" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="13.2">
@@ -3397,13 +3400,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D74" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="D74" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>95</v>
+      <c r="E74" s="38" t="s">
+        <v>171</v>
       </c>
       <c r="F74" s="9">
         <v>0.97</v>
@@ -3415,10 +3418,10 @@
         <v>2025</v>
       </c>
       <c r="J74" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K74" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="K74" s="11" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="13.2">
@@ -3427,13 +3430,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D75" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D75" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>95</v>
+      <c r="E75" s="38" t="s">
+        <v>171</v>
       </c>
       <c r="F75" s="9">
         <v>0.97199999999999998</v>
@@ -3445,10 +3448,10 @@
         <v>2025</v>
       </c>
       <c r="J75" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="K75" s="11" t="s">
         <v>128</v>
-      </c>
-      <c r="K75" s="11" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="13.2">
@@ -3457,13 +3460,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D76" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D76" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>95</v>
+      <c r="E76" s="38" t="s">
+        <v>171</v>
       </c>
       <c r="F76" s="26">
         <v>0.9</v>
@@ -3475,25 +3478,25 @@
         <v>2025</v>
       </c>
       <c r="J76" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K76" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="K76" s="11" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="13.2">
       <c r="A77" s="1"/>
       <c r="B77" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C77" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="C77" s="24" t="s">
+      <c r="D77" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="D77" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>95</v>
+      <c r="E77" s="38" t="s">
+        <v>171</v>
       </c>
       <c r="F77" s="25">
         <v>1.1974E-2</v>
@@ -3505,25 +3508,25 @@
         <v>2025</v>
       </c>
       <c r="J77" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K77" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="13.2">
       <c r="A78" s="1"/>
       <c r="B78" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C78" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D78" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="D78" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>95</v>
+      <c r="E78" s="38" t="s">
+        <v>171</v>
       </c>
       <c r="F78" s="25">
         <v>4.4900000000000002E-4</v>
@@ -3535,25 +3538,25 @@
         <v>2025</v>
       </c>
       <c r="J78" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K78" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="13.2">
       <c r="A79" s="1"/>
       <c r="B79" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C79" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D79" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="D79" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>95</v>
+      <c r="E79" s="38" t="s">
+        <v>171</v>
       </c>
       <c r="F79" s="25">
         <v>4.4900000000000002E-4</v>
@@ -3565,25 +3568,25 @@
         <v>2025</v>
       </c>
       <c r="J79" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K79" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="13.2">
       <c r="A80" s="1"/>
       <c r="B80" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C80" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D80" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="D80" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>95</v>
+      <c r="E80" s="38" t="s">
+        <v>171</v>
       </c>
       <c r="F80" s="25">
         <v>4.4900000000000002E-4</v>
@@ -3595,25 +3598,25 @@
         <v>2025</v>
       </c>
       <c r="J80" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K80" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="13.2">
       <c r="A81" s="1"/>
       <c r="B81" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C81" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D81" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="D81" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>95</v>
+      <c r="E81" s="38" t="s">
+        <v>171</v>
       </c>
       <c r="F81" s="25">
         <v>4.4900000000000002E-4</v>
@@ -3625,25 +3628,25 @@
         <v>2025</v>
       </c>
       <c r="J81" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K81" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="13.2">
       <c r="A82" s="1"/>
       <c r="B82" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C82" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D82" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D82" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>95</v>
+      <c r="E82" s="38" t="s">
+        <v>171</v>
       </c>
       <c r="F82" s="9">
         <v>1</v>
@@ -3656,16 +3659,16 @@
     <row r="83" spans="1:11" ht="13.2">
       <c r="A83" s="1"/>
       <c r="B83" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C83" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D83" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D83" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>95</v>
+      <c r="E83" s="38" t="s">
+        <v>171</v>
       </c>
       <c r="F83" s="9">
         <v>1</v>
@@ -3681,13 +3684,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D84" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="D84" s="18" t="s">
-        <v>106</v>
-      </c>
       <c r="E84" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F84" s="9">
         <v>692792</v>
@@ -3699,10 +3702,10 @@
         <v>2025</v>
       </c>
       <c r="J84" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K84" s="11" t="s">
         <v>107</v>
-      </c>
-      <c r="K84" s="11" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="13.2">
@@ -3711,13 +3714,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D85" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="D85" s="28" t="s">
-        <v>110</v>
-      </c>
       <c r="E85" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F85" s="9">
         <v>6.6</v>
@@ -3729,13 +3732,13 @@
         <v>2025</v>
       </c>
       <c r="I85" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J85" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K85" s="11" t="s">
         <v>111</v>
-      </c>
-      <c r="J85" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="K85" s="11" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="13.2">
@@ -3744,13 +3747,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D86" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D86" s="10" t="s">
-        <v>114</v>
-      </c>
       <c r="E86" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F86" s="9">
         <v>3.6999999999999998E-2</v>
@@ -3762,10 +3765,10 @@
         <v>2025</v>
       </c>
       <c r="J86" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K86" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="K86" s="11" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="13.2">
@@ -3774,13 +3777,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D87" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D87" s="10" t="s">
-        <v>118</v>
-      </c>
       <c r="E87" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F87" s="9">
         <v>6.54</v>
@@ -3792,13 +3795,13 @@
         <v>2025</v>
       </c>
       <c r="I87" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J87" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K87" s="11" t="s">
         <v>119</v>
-      </c>
-      <c r="J87" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="K87" s="11" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="13.2">
@@ -3807,13 +3810,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D88" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E88" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F88" s="9">
         <v>77.5</v>
@@ -3826,10 +3829,10 @@
       </c>
       <c r="I88" s="18"/>
       <c r="J88" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K88" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="13.2">
@@ -3838,13 +3841,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D89" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D89" s="18" t="s">
-        <v>125</v>
-      </c>
       <c r="E89" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F89" s="9">
         <v>0.71</v>
@@ -3856,10 +3859,10 @@
         <v>2025</v>
       </c>
       <c r="J89" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K89" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="K89" s="11" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="13.2">
@@ -3868,13 +3871,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D90" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="D90" s="18" t="s">
-        <v>127</v>
-      </c>
       <c r="E90" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F90" s="9">
         <v>0.97199999999999998</v>
@@ -3886,10 +3889,10 @@
         <v>2025</v>
       </c>
       <c r="J90" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="K90" s="11" t="s">
         <v>128</v>
-      </c>
-      <c r="K90" s="11" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="13.2">
@@ -3898,13 +3901,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D91" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D91" s="10" t="s">
-        <v>131</v>
-      </c>
       <c r="E91" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F91" s="26">
         <v>0.9</v>
@@ -3916,25 +3919,25 @@
         <v>2025</v>
       </c>
       <c r="J91" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K91" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="K91" s="11" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="13.2">
       <c r="A92" s="1"/>
       <c r="B92" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C92" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="C92" s="24" t="s">
+      <c r="D92" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="D92" s="18" t="s">
-        <v>134</v>
-      </c>
       <c r="E92" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F92" s="25">
         <v>9.1529999999999997E-3</v>
@@ -3946,25 +3949,25 @@
         <v>2025</v>
       </c>
       <c r="J92" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K92" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="13.2">
       <c r="A93" s="1"/>
       <c r="B93" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C93" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D93" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="D93" s="18" t="s">
-        <v>137</v>
-      </c>
       <c r="E93" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F93" s="25">
         <v>4.6900000000000002E-4</v>
@@ -3976,25 +3979,25 @@
         <v>2025</v>
       </c>
       <c r="J93" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K93" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="13.2">
       <c r="A94" s="1"/>
       <c r="B94" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C94" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D94" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="D94" s="18" t="s">
-        <v>139</v>
-      </c>
       <c r="E94" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F94" s="25">
         <v>4.6900000000000002E-4</v>
@@ -4006,25 +4009,25 @@
         <v>2025</v>
       </c>
       <c r="J94" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K94" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="13.2">
       <c r="A95" s="1"/>
       <c r="B95" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C95" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D95" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="D95" s="18" t="s">
-        <v>141</v>
-      </c>
       <c r="E95" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F95" s="25">
         <v>4.6900000000000002E-4</v>
@@ -4036,25 +4039,25 @@
         <v>2025</v>
       </c>
       <c r="J95" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K95" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="13.2">
       <c r="A96" s="1"/>
       <c r="B96" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C96" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D96" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="D96" s="18" t="s">
-        <v>143</v>
-      </c>
       <c r="E96" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F96" s="25">
         <v>4.6900000000000002E-4</v>
@@ -4066,25 +4069,25 @@
         <v>2025</v>
       </c>
       <c r="J96" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K96" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="97" spans="1:26" ht="13.2">
       <c r="A97" s="1"/>
       <c r="B97" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C97" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D97" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D97" s="7" t="s">
-        <v>145</v>
-      </c>
       <c r="E97" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F97" s="9">
         <v>1</v>
@@ -4097,16 +4100,16 @@
     <row r="98" spans="1:26" ht="13.2">
       <c r="A98" s="1"/>
       <c r="B98" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C98" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D98" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D98" s="10" t="s">
-        <v>147</v>
-      </c>
       <c r="E98" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F98" s="9">
         <v>1</v>
@@ -4122,13 +4125,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D99" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="D99" s="18" t="s">
-        <v>106</v>
-      </c>
       <c r="E99" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F99" s="9">
         <v>267665</v>
@@ -4140,10 +4143,10 @@
         <v>2025</v>
       </c>
       <c r="J99" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K99" s="11" t="s">
         <v>107</v>
-      </c>
-      <c r="K99" s="11" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="100" spans="1:26" ht="13.2">
@@ -4152,13 +4155,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D100" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="D100" s="28" t="s">
-        <v>110</v>
-      </c>
       <c r="E100" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F100" s="9">
         <v>9.4</v>
@@ -4170,13 +4173,13 @@
         <v>2025</v>
       </c>
       <c r="I100" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J100" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K100" s="11" t="s">
         <v>111</v>
-      </c>
-      <c r="J100" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="K100" s="11" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="101" spans="1:26" ht="13.2">
@@ -4185,13 +4188,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D101" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D101" s="10" t="s">
-        <v>114</v>
-      </c>
       <c r="E101" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F101" s="9">
         <v>5.0000000000000001E-3</v>
@@ -4203,10 +4206,10 @@
         <v>2025</v>
       </c>
       <c r="J101" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K101" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="K101" s="11" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:26" ht="13.2">
@@ -4215,13 +4218,13 @@
         <v>8</v>
       </c>
       <c r="C102" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D102" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D102" s="10" t="s">
-        <v>118</v>
-      </c>
       <c r="E102" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F102" s="9">
         <v>7.1</v>
@@ -4233,13 +4236,13 @@
         <v>2025</v>
       </c>
       <c r="I102" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J102" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K102" s="11" t="s">
         <v>119</v>
-      </c>
-      <c r="J102" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="K102" s="11" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="103" spans="1:26" ht="13.2">
@@ -4248,13 +4251,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D103" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E103" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F103" s="9">
         <v>78.099999999999994</v>
@@ -4267,10 +4270,10 @@
       </c>
       <c r="I103" s="18"/>
       <c r="J103" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K103" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="104" spans="1:26" ht="13.2">
@@ -4279,13 +4282,13 @@
         <v>8</v>
       </c>
       <c r="C104" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D104" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D104" s="18" t="s">
-        <v>125</v>
-      </c>
       <c r="E104" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F104" s="9">
         <v>0.26</v>
@@ -4297,10 +4300,10 @@
         <v>2025</v>
       </c>
       <c r="J104" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K104" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="K104" s="11" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="105" spans="1:26" ht="13.2">
@@ -4309,13 +4312,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D105" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="D105" s="18" t="s">
-        <v>127</v>
-      </c>
       <c r="E105" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F105" s="23">
         <v>0.84199999999999997</v>
@@ -4327,10 +4330,10 @@
         <v>2025</v>
       </c>
       <c r="J105" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="K105" s="11" t="s">
         <v>128</v>
-      </c>
-      <c r="K105" s="11" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="106" spans="1:26" ht="13.2">
@@ -4339,13 +4342,13 @@
         <v>8</v>
       </c>
       <c r="C106" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D106" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D106" s="10" t="s">
-        <v>131</v>
-      </c>
       <c r="E106" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F106" s="21">
         <v>0.76</v>
@@ -4358,10 +4361,10 @@
       </c>
       <c r="I106" s="18"/>
       <c r="J106" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K106" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="K106" s="11" t="s">
-        <v>116</v>
       </c>
       <c r="L106" s="18"/>
       <c r="M106" s="18"/>
@@ -4382,16 +4385,16 @@
     <row r="107" spans="1:26" ht="13.2">
       <c r="A107" s="1"/>
       <c r="B107" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C107" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="C107" s="24" t="s">
+      <c r="D107" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="D107" s="18" t="s">
-        <v>134</v>
-      </c>
       <c r="E107" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F107" s="25">
         <v>8.5660000000000007E-3</v>
@@ -4403,25 +4406,25 @@
         <v>2025</v>
       </c>
       <c r="J107" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K107" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="108" spans="1:26" ht="13.2">
       <c r="A108" s="1"/>
       <c r="B108" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C108" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D108" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="D108" s="18" t="s">
-        <v>137</v>
-      </c>
       <c r="E108" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F108" s="25">
         <v>4.73E-4</v>
@@ -4433,25 +4436,25 @@
         <v>2025</v>
       </c>
       <c r="J108" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K108" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="109" spans="1:26" ht="13.2">
       <c r="A109" s="1"/>
       <c r="B109" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C109" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D109" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="D109" s="18" t="s">
-        <v>139</v>
-      </c>
       <c r="E109" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F109" s="25">
         <v>4.73E-4</v>
@@ -4463,25 +4466,25 @@
         <v>2025</v>
       </c>
       <c r="J109" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K109" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="110" spans="1:26" ht="13.2">
       <c r="A110" s="1"/>
       <c r="B110" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C110" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D110" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="D110" s="18" t="s">
-        <v>141</v>
-      </c>
       <c r="E110" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F110" s="25">
         <v>4.73E-4</v>
@@ -4493,25 +4496,25 @@
         <v>2025</v>
       </c>
       <c r="J110" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K110" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="111" spans="1:26" ht="13.2">
       <c r="A111" s="1"/>
       <c r="B111" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C111" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D111" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="D111" s="18" t="s">
-        <v>143</v>
-      </c>
       <c r="E111" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F111" s="25">
         <v>4.73E-4</v>
@@ -4523,25 +4526,25 @@
         <v>2025</v>
       </c>
       <c r="J111" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K111" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="112" spans="1:26" ht="13.2">
       <c r="A112" s="1"/>
       <c r="B112" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C112" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D112" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D112" s="7" t="s">
-        <v>145</v>
-      </c>
       <c r="E112" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F112" s="9">
         <v>1</v>
@@ -4554,16 +4557,16 @@
     <row r="113" spans="1:11" ht="13.2">
       <c r="A113" s="1"/>
       <c r="B113" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C113" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D113" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D113" s="10" t="s">
-        <v>147</v>
-      </c>
       <c r="E113" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F113" s="9">
         <v>1</v>
@@ -4579,13 +4582,13 @@
         <v>8</v>
       </c>
       <c r="C114" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D114" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="D114" s="18" t="s">
-        <v>106</v>
-      </c>
       <c r="E114" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F114" s="9">
         <v>50630</v>
@@ -4597,10 +4600,10 @@
         <v>2025</v>
       </c>
       <c r="J114" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K114" s="11" t="s">
         <v>107</v>
-      </c>
-      <c r="K114" s="11" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="13.2">
@@ -4609,13 +4612,13 @@
         <v>8</v>
       </c>
       <c r="C115" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D115" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="D115" s="28" t="s">
-        <v>110</v>
-      </c>
       <c r="E115" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F115" s="9">
         <v>4.5</v>
@@ -4627,13 +4630,13 @@
         <v>2025</v>
       </c>
       <c r="I115" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J115" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K115" s="11" t="s">
         <v>111</v>
-      </c>
-      <c r="J115" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="K115" s="11" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="13.2">
@@ -4642,13 +4645,13 @@
         <v>8</v>
       </c>
       <c r="C116" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D116" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D116" s="10" t="s">
-        <v>114</v>
-      </c>
       <c r="E116" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F116" s="9">
         <v>1.9E-2</v>
@@ -4660,10 +4663,10 @@
         <v>2025</v>
       </c>
       <c r="J116" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K116" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="K116" s="11" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="13.2">
@@ -4672,13 +4675,13 @@
         <v>8</v>
       </c>
       <c r="C117" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D117" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D117" s="10" t="s">
-        <v>118</v>
-      </c>
       <c r="E117" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F117" s="9">
         <v>7.2</v>
@@ -4690,13 +4693,13 @@
         <v>2025</v>
       </c>
       <c r="I117" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J117" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K117" s="11" t="s">
         <v>119</v>
-      </c>
-      <c r="J117" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="K117" s="11" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="13.2">
@@ -4705,13 +4708,13 @@
         <v>8</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D118" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E118" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F118" s="9">
         <v>80.3</v>
@@ -4724,10 +4727,10 @@
       </c>
       <c r="I118" s="18"/>
       <c r="J118" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K118" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="13.2">
@@ -4736,13 +4739,13 @@
         <v>8</v>
       </c>
       <c r="C119" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D119" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D119" s="18" t="s">
-        <v>125</v>
-      </c>
       <c r="E119" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F119" s="9">
         <v>0.75</v>
@@ -4754,10 +4757,10 @@
         <v>2025</v>
       </c>
       <c r="J119" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K119" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="K119" s="11" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="13.2">
@@ -4766,13 +4769,13 @@
         <v>8</v>
       </c>
       <c r="C120" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D120" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="D120" s="18" t="s">
-        <v>127</v>
-      </c>
       <c r="E120" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F120" s="23">
         <v>0.97599999999999998</v>
@@ -4784,10 +4787,10 @@
         <v>2025</v>
       </c>
       <c r="J120" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="K120" s="11" t="s">
         <v>128</v>
-      </c>
-      <c r="K120" s="11" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="13.2">
@@ -4796,13 +4799,13 @@
         <v>8</v>
       </c>
       <c r="C121" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D121" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D121" s="10" t="s">
-        <v>131</v>
-      </c>
       <c r="E121" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F121" s="9">
         <v>0.54</v>
@@ -4814,25 +4817,25 @@
         <v>2025</v>
       </c>
       <c r="J121" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K121" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="K121" s="11" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="13.2">
       <c r="A122" s="1"/>
       <c r="B122" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C122" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="C122" s="24" t="s">
+      <c r="D122" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="D122" s="18" t="s">
-        <v>134</v>
-      </c>
       <c r="E122" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F122" s="25">
         <v>7.6909999999999999E-3</v>
@@ -4844,25 +4847,25 @@
         <v>2025</v>
       </c>
       <c r="J122" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K122" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="13.2">
       <c r="A123" s="1"/>
       <c r="B123" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C123" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D123" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="D123" s="18" t="s">
-        <v>137</v>
-      </c>
       <c r="E123" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F123" s="25">
         <v>2.4800000000000001E-4</v>
@@ -4874,25 +4877,25 @@
         <v>2025</v>
       </c>
       <c r="J123" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K123" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="13.2">
       <c r="A124" s="1"/>
       <c r="B124" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C124" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D124" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="D124" s="18" t="s">
-        <v>139</v>
-      </c>
       <c r="E124" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F124" s="25">
         <v>2.4800000000000001E-4</v>
@@ -4904,25 +4907,25 @@
         <v>2025</v>
       </c>
       <c r="J124" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K124" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="13.2">
       <c r="A125" s="1"/>
       <c r="B125" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C125" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D125" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="D125" s="18" t="s">
-        <v>141</v>
-      </c>
       <c r="E125" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F125" s="25">
         <v>2.4800000000000001E-4</v>
@@ -4934,25 +4937,25 @@
         <v>2025</v>
       </c>
       <c r="J125" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K125" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="13.2">
       <c r="A126" s="1"/>
       <c r="B126" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C126" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D126" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="D126" s="18" t="s">
-        <v>143</v>
-      </c>
       <c r="E126" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F126" s="25">
         <v>2.4800000000000001E-4</v>
@@ -4964,25 +4967,25 @@
         <v>2025</v>
       </c>
       <c r="J126" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K126" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="13.2">
       <c r="A127" s="1"/>
       <c r="B127" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C127" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D127" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D127" s="7" t="s">
-        <v>145</v>
-      </c>
       <c r="E127" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F127" s="9">
         <v>1</v>
@@ -4995,16 +4998,16 @@
     <row r="128" spans="1:11" ht="13.2">
       <c r="A128" s="1"/>
       <c r="B128" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C128" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D128" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D128" s="10" t="s">
-        <v>147</v>
-      </c>
       <c r="E128" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F128" s="9">
         <v>1</v>
@@ -5020,13 +5023,13 @@
         <v>8</v>
       </c>
       <c r="C129" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D129" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="D129" s="18" t="s">
-        <v>106</v>
-      </c>
       <c r="E129" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F129" s="9">
         <v>170383</v>
@@ -5038,10 +5041,10 @@
         <v>2025</v>
       </c>
       <c r="J129" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K129" s="11" t="s">
         <v>107</v>
-      </c>
-      <c r="K129" s="11" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="13.2">
@@ -5050,13 +5053,13 @@
         <v>8</v>
       </c>
       <c r="C130" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D130" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="D130" s="28" t="s">
-        <v>110</v>
-      </c>
       <c r="E130" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F130" s="9">
         <v>2.8</v>
@@ -5068,13 +5071,13 @@
         <v>2025</v>
       </c>
       <c r="I130" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J130" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K130" s="11" t="s">
         <v>111</v>
-      </c>
-      <c r="J130" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="K130" s="11" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="13.2">
@@ -5083,13 +5086,13 @@
         <v>8</v>
       </c>
       <c r="C131" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D131" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D131" s="10" t="s">
-        <v>114</v>
-      </c>
       <c r="E131" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F131" s="9">
         <v>7.0000000000000001E-3</v>
@@ -5101,10 +5104,10 @@
         <v>2025</v>
       </c>
       <c r="J131" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K131" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="K131" s="11" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="13.2">
@@ -5113,13 +5116,13 @@
         <v>8</v>
       </c>
       <c r="C132" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D132" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D132" s="10" t="s">
-        <v>118</v>
-      </c>
       <c r="E132" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F132" s="9">
         <v>4.63</v>
@@ -5131,13 +5134,13 @@
         <v>2025</v>
       </c>
       <c r="I132" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J132" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K132" s="11" t="s">
         <v>119</v>
-      </c>
-      <c r="J132" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="K132" s="11" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="13.2">
@@ -5146,13 +5149,13 @@
         <v>8</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D133" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E133" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F133" s="9">
         <v>81.2</v>
@@ -5165,10 +5168,10 @@
       </c>
       <c r="I133" s="18"/>
       <c r="J133" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K133" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="134" spans="1:11" ht="13.2">
@@ -5177,13 +5180,13 @@
         <v>8</v>
       </c>
       <c r="C134" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D134" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D134" s="18" t="s">
-        <v>125</v>
-      </c>
       <c r="E134" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F134" s="9">
         <v>0.9</v>
@@ -5195,10 +5198,10 @@
         <v>2025</v>
       </c>
       <c r="J134" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K134" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="K134" s="11" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="135" spans="1:11" ht="13.2">
@@ -5207,13 +5210,13 @@
         <v>8</v>
       </c>
       <c r="C135" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D135" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="D135" s="18" t="s">
-        <v>127</v>
-      </c>
       <c r="E135" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F135" s="9">
         <v>0.86699999999999999</v>
@@ -5225,10 +5228,10 @@
         <v>2025</v>
       </c>
       <c r="J135" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K135" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="K135" s="11" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="13.2">
@@ -5237,13 +5240,13 @@
         <v>8</v>
       </c>
       <c r="C136" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D136" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D136" s="10" t="s">
-        <v>131</v>
-      </c>
       <c r="E136" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F136" s="9">
         <v>0.92</v>
@@ -5255,25 +5258,25 @@
         <v>2025</v>
       </c>
       <c r="J136" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K136" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="K136" s="11" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="13.2">
       <c r="A137" s="1"/>
       <c r="B137" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C137" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="C137" s="24" t="s">
+      <c r="D137" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="D137" s="18" t="s">
-        <v>134</v>
-      </c>
       <c r="E137" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F137" s="25">
         <v>5.091E-3</v>
@@ -5285,25 +5288,25 @@
         <v>2025</v>
       </c>
       <c r="J137" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K137" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="138" spans="1:11" ht="13.2">
       <c r="A138" s="1"/>
       <c r="B138" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C138" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D138" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="D138" s="18" t="s">
-        <v>137</v>
-      </c>
       <c r="E138" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F138" s="25">
         <v>2.33E-4</v>
@@ -5315,25 +5318,25 @@
         <v>2025</v>
       </c>
       <c r="J138" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K138" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="139" spans="1:11" ht="13.2">
       <c r="A139" s="1"/>
       <c r="B139" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C139" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D139" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="D139" s="18" t="s">
-        <v>139</v>
-      </c>
       <c r="E139" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F139" s="25">
         <v>2.33E-4</v>
@@ -5345,25 +5348,25 @@
         <v>2025</v>
       </c>
       <c r="J139" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K139" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="140" spans="1:11" ht="13.2">
       <c r="A140" s="1"/>
       <c r="B140" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C140" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D140" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="D140" s="18" t="s">
-        <v>141</v>
-      </c>
       <c r="E140" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F140" s="25">
         <v>2.33E-4</v>
@@ -5375,25 +5378,25 @@
         <v>2025</v>
       </c>
       <c r="J140" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K140" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="141" spans="1:11" ht="13.2">
       <c r="A141" s="1"/>
       <c r="B141" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C141" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D141" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="D141" s="18" t="s">
-        <v>143</v>
-      </c>
       <c r="E141" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F141" s="25">
         <v>2.33E-4</v>
@@ -5405,25 +5408,25 @@
         <v>2025</v>
       </c>
       <c r="J141" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K141" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="142" spans="1:11" ht="13.2">
       <c r="A142" s="1"/>
       <c r="B142" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C142" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D142" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D142" s="7" t="s">
-        <v>145</v>
-      </c>
       <c r="E142" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F142" s="9">
         <v>1</v>
@@ -5436,16 +5439,16 @@
     <row r="143" spans="1:11" ht="13.2">
       <c r="A143" s="1"/>
       <c r="B143" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C143" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D143" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D143" s="10" t="s">
-        <v>147</v>
-      </c>
       <c r="E143" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F143" s="9">
         <v>1</v>
@@ -5461,13 +5464,13 @@
         <v>8</v>
       </c>
       <c r="C144" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D144" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="D144" s="18" t="s">
-        <v>106</v>
-      </c>
       <c r="E144" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F144" s="9">
         <v>535695</v>
@@ -5479,10 +5482,10 @@
         <v>2025</v>
       </c>
       <c r="J144" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K144" s="11" t="s">
         <v>107</v>
-      </c>
-      <c r="K144" s="11" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="145" spans="1:11" ht="13.2">
@@ -5491,13 +5494,13 @@
         <v>8</v>
       </c>
       <c r="C145" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D145" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="D145" s="28" t="s">
-        <v>110</v>
-      </c>
       <c r="E145" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F145" s="9">
         <v>6.5</v>
@@ -5509,13 +5512,13 @@
         <v>2025</v>
       </c>
       <c r="I145" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J145" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K145" s="11" t="s">
         <v>111</v>
-      </c>
-      <c r="J145" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="K145" s="11" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="146" spans="1:11" ht="13.2">
@@ -5524,13 +5527,13 @@
         <v>8</v>
       </c>
       <c r="C146" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D146" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D146" s="10" t="s">
-        <v>114</v>
-      </c>
       <c r="E146" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F146" s="9">
         <v>8.9999999999999993E-3</v>
@@ -5542,10 +5545,10 @@
         <v>2025</v>
       </c>
       <c r="J146" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K146" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="K146" s="11" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="147" spans="1:11" ht="13.2">
@@ -5554,13 +5557,13 @@
         <v>8</v>
       </c>
       <c r="C147" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D147" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D147" s="10" t="s">
-        <v>118</v>
-      </c>
       <c r="E147" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F147" s="9">
         <v>7.76</v>
@@ -5572,13 +5575,13 @@
         <v>2025</v>
       </c>
       <c r="I147" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J147" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K147" s="11" t="s">
         <v>119</v>
-      </c>
-      <c r="J147" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="K147" s="11" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="148" spans="1:11" ht="13.2">
@@ -5587,13 +5590,13 @@
         <v>8</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D148" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E148" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F148" s="9">
         <v>77</v>
@@ -5606,10 +5609,10 @@
       </c>
       <c r="I148" s="18"/>
       <c r="J148" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K148" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="149" spans="1:11" ht="13.2">
@@ -5618,13 +5621,13 @@
         <v>8</v>
       </c>
       <c r="C149" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D149" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D149" s="18" t="s">
-        <v>125</v>
-      </c>
       <c r="E149" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F149" s="9">
         <v>0.93</v>
@@ -5636,10 +5639,10 @@
         <v>2025</v>
       </c>
       <c r="J149" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K149" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="K149" s="11" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="150" spans="1:11" ht="13.2">
@@ -5648,13 +5651,13 @@
         <v>8</v>
       </c>
       <c r="C150" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D150" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="D150" s="18" t="s">
-        <v>127</v>
-      </c>
       <c r="E150" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F150" s="9">
         <v>0.98299999999999998</v>
@@ -5666,10 +5669,10 @@
         <v>2025</v>
       </c>
       <c r="J150" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="K150" s="11" t="s">
         <v>128</v>
-      </c>
-      <c r="K150" s="11" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="151" spans="1:11" ht="13.2">
@@ -5678,13 +5681,13 @@
         <v>8</v>
       </c>
       <c r="C151" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D151" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D151" s="10" t="s">
-        <v>131</v>
-      </c>
       <c r="E151" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F151" s="9">
         <v>0.82</v>
@@ -5696,25 +5699,25 @@
         <v>2025</v>
       </c>
       <c r="J151" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K151" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="K151" s="11" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="152" spans="1:11" ht="13.2">
       <c r="A152" s="1"/>
       <c r="B152" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C152" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="C152" s="24" t="s">
+      <c r="D152" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="D152" s="18" t="s">
-        <v>134</v>
-      </c>
       <c r="E152" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F152" s="25">
         <v>7.5890000000000003E-3</v>
@@ -5726,25 +5729,25 @@
         <v>2025</v>
       </c>
       <c r="J152" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K152" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="153" spans="1:11" ht="13.2">
       <c r="A153" s="1"/>
       <c r="B153" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C153" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D153" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="D153" s="18" t="s">
-        <v>137</v>
-      </c>
       <c r="E153" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F153" s="25">
         <v>5.5599999999999996E-4</v>
@@ -5756,25 +5759,25 @@
         <v>2025</v>
       </c>
       <c r="J153" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K153" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="154" spans="1:11" ht="13.2">
       <c r="A154" s="1"/>
       <c r="B154" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C154" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D154" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="D154" s="18" t="s">
-        <v>139</v>
-      </c>
       <c r="E154" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F154" s="25">
         <v>5.5599999999999996E-4</v>
@@ -5786,25 +5789,25 @@
         <v>2025</v>
       </c>
       <c r="J154" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K154" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="155" spans="1:11" ht="13.2">
       <c r="A155" s="1"/>
       <c r="B155" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C155" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D155" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="D155" s="18" t="s">
-        <v>141</v>
-      </c>
       <c r="E155" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F155" s="25">
         <v>5.5599999999999996E-4</v>
@@ -5816,25 +5819,25 @@
         <v>2025</v>
       </c>
       <c r="J155" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K155" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="156" spans="1:11" ht="13.2">
       <c r="A156" s="1"/>
       <c r="B156" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C156" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D156" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="D156" s="18" t="s">
-        <v>143</v>
-      </c>
       <c r="E156" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F156" s="25">
         <v>5.5599999999999996E-4</v>
@@ -5846,25 +5849,25 @@
         <v>2025</v>
       </c>
       <c r="J156" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K156" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="157" spans="1:11" ht="13.2">
       <c r="A157" s="1"/>
       <c r="B157" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C157" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D157" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D157" s="7" t="s">
-        <v>145</v>
-      </c>
       <c r="E157" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F157" s="9">
         <v>1</v>
@@ -5877,16 +5880,16 @@
     <row r="158" spans="1:11" ht="13.2">
       <c r="A158" s="1"/>
       <c r="B158" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C158" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D158" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D158" s="10" t="s">
-        <v>147</v>
-      </c>
       <c r="E158" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F158" s="9">
         <v>1</v>
@@ -5902,13 +5905,13 @@
         <v>8</v>
       </c>
       <c r="C159" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D159" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="D159" s="18" t="s">
-        <v>106</v>
-      </c>
       <c r="E159" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F159" s="9">
         <v>2003673</v>
@@ -5920,10 +5923,10 @@
         <v>2025</v>
       </c>
       <c r="J159" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K159" s="11" t="s">
         <v>107</v>
-      </c>
-      <c r="K159" s="11" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="160" spans="1:11" ht="13.2">
@@ -5932,13 +5935,13 @@
         <v>8</v>
       </c>
       <c r="C160" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D160" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="D160" s="28" t="s">
-        <v>110</v>
-      </c>
       <c r="E160" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F160" s="9">
         <v>6.4</v>
@@ -5950,13 +5953,13 @@
         <v>2025</v>
       </c>
       <c r="I160" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J160" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K160" s="11" t="s">
         <v>111</v>
-      </c>
-      <c r="J160" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="K160" s="11" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="161" spans="1:11" ht="13.2">
@@ -5965,13 +5968,13 @@
         <v>8</v>
       </c>
       <c r="C161" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D161" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D161" s="10" t="s">
-        <v>114</v>
-      </c>
       <c r="E161" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F161" s="9">
         <v>6.0000000000000001E-3</v>
@@ -5983,10 +5986,10 @@
         <v>2025</v>
       </c>
       <c r="J161" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K161" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="K161" s="11" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="162" spans="1:11" ht="13.2">
@@ -5995,13 +5998,13 @@
         <v>8</v>
       </c>
       <c r="C162" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D162" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D162" s="10" t="s">
-        <v>118</v>
-      </c>
       <c r="E162" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F162" s="9">
         <v>7.59</v>
@@ -6013,13 +6016,13 @@
         <v>2025</v>
       </c>
       <c r="I162" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J162" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K162" s="11" t="s">
         <v>119</v>
-      </c>
-      <c r="J162" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="K162" s="11" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="163" spans="1:11" ht="13.2">
@@ -6028,13 +6031,13 @@
         <v>8</v>
       </c>
       <c r="C163" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D163" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E163" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F163" s="9">
         <v>75</v>
@@ -6047,10 +6050,10 @@
       </c>
       <c r="I163" s="18"/>
       <c r="J163" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K163" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="164" spans="1:11" ht="13.2">
@@ -6059,13 +6062,13 @@
         <v>8</v>
       </c>
       <c r="C164" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D164" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D164" s="18" t="s">
-        <v>125</v>
-      </c>
       <c r="E164" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F164" s="9">
         <v>0.9</v>
@@ -6077,10 +6080,10 @@
         <v>2025</v>
       </c>
       <c r="J164" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K164" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="K164" s="11" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="165" spans="1:11" ht="13.2">
@@ -6089,13 +6092,13 @@
         <v>8</v>
       </c>
       <c r="C165" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D165" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="D165" s="18" t="s">
-        <v>127</v>
-      </c>
       <c r="E165" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F165" s="9">
         <v>0.98499999999999999</v>
@@ -6107,10 +6110,10 @@
         <v>2025</v>
       </c>
       <c r="J165" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="K165" s="11" t="s">
         <v>128</v>
-      </c>
-      <c r="K165" s="11" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="166" spans="1:11" ht="13.2">
@@ -6119,13 +6122,13 @@
         <v>8</v>
       </c>
       <c r="C166" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D166" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D166" s="10" t="s">
-        <v>131</v>
-      </c>
       <c r="E166" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F166" s="23">
         <v>0.82</v>
@@ -6137,25 +6140,25 @@
         <v>2025</v>
       </c>
       <c r="J166" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K166" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="K166" s="11" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="167" spans="1:11" ht="13.2">
       <c r="A167" s="1"/>
       <c r="B167" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C167" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="C167" s="24" t="s">
+      <c r="D167" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="D167" s="18" t="s">
-        <v>134</v>
-      </c>
       <c r="E167" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F167" s="25">
         <v>9.2250000000000006E-3</v>
@@ -6167,25 +6170,25 @@
         <v>2025</v>
       </c>
       <c r="J167" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K167" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="168" spans="1:11" ht="13.2">
       <c r="A168" s="1"/>
       <c r="B168" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C168" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D168" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="D168" s="18" t="s">
-        <v>137</v>
-      </c>
       <c r="E168" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F168" s="25">
         <v>4.8200000000000001E-4</v>
@@ -6197,25 +6200,25 @@
         <v>2025</v>
       </c>
       <c r="J168" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K168" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="169" spans="1:11" ht="13.2">
       <c r="A169" s="1"/>
       <c r="B169" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C169" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D169" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="D169" s="18" t="s">
-        <v>139</v>
-      </c>
       <c r="E169" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F169" s="25">
         <v>4.8200000000000001E-4</v>
@@ -6227,25 +6230,25 @@
         <v>2025</v>
       </c>
       <c r="J169" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K169" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="170" spans="1:11" ht="13.2">
       <c r="A170" s="1"/>
       <c r="B170" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C170" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D170" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="D170" s="18" t="s">
-        <v>141</v>
-      </c>
       <c r="E170" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F170" s="25">
         <v>4.8200000000000001E-4</v>
@@ -6257,25 +6260,25 @@
         <v>2025</v>
       </c>
       <c r="J170" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K170" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="171" spans="1:11" ht="13.2">
       <c r="A171" s="1"/>
       <c r="B171" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C171" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D171" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="D171" s="18" t="s">
-        <v>143</v>
-      </c>
       <c r="E171" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F171" s="25">
         <v>4.8200000000000001E-4</v>
@@ -6287,25 +6290,25 @@
         <v>2025</v>
       </c>
       <c r="J171" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K171" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="172" spans="1:11" ht="13.2">
       <c r="A172" s="1"/>
       <c r="B172" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C172" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D172" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D172" s="7" t="s">
-        <v>145</v>
-      </c>
       <c r="E172" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F172" s="9">
         <v>1</v>
@@ -6318,16 +6321,16 @@
     <row r="173" spans="1:11" ht="13.2">
       <c r="A173" s="1"/>
       <c r="B173" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C173" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D173" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D173" s="10" t="s">
-        <v>147</v>
-      </c>
       <c r="E173" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F173" s="9">
         <v>1</v>
@@ -6343,13 +6346,13 @@
         <v>8</v>
       </c>
       <c r="C174" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D174" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="D174" s="18" t="s">
-        <v>106</v>
-      </c>
       <c r="E174" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F174" s="9">
         <v>31840</v>
@@ -6361,10 +6364,10 @@
         <v>2025</v>
       </c>
       <c r="J174" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K174" s="11" t="s">
         <v>107</v>
-      </c>
-      <c r="K174" s="11" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="175" spans="1:11" ht="13.2">
@@ -6373,13 +6376,13 @@
         <v>8</v>
       </c>
       <c r="C175" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D175" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="D175" s="28" t="s">
-        <v>110</v>
-      </c>
       <c r="E175" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F175" s="9">
         <v>13.7</v>
@@ -6391,13 +6394,13 @@
         <v>2025</v>
       </c>
       <c r="I175" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J175" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K175" s="11" t="s">
         <v>111</v>
-      </c>
-      <c r="J175" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="K175" s="11" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="176" spans="1:11" ht="13.2">
@@ -6406,13 +6409,13 @@
         <v>8</v>
       </c>
       <c r="C176" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D176" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D176" s="10" t="s">
-        <v>114</v>
-      </c>
       <c r="E176" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F176" s="9">
         <v>8.0000000000000002E-3</v>
@@ -6424,10 +6427,10 @@
         <v>2025</v>
       </c>
       <c r="J176" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K176" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="K176" s="11" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="177" spans="1:11" ht="13.2">
@@ -6436,13 +6439,13 @@
         <v>8</v>
       </c>
       <c r="C177" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D177" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D177" s="10" t="s">
-        <v>118</v>
-      </c>
       <c r="E177" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F177" s="9">
         <v>14.53</v>
@@ -6454,13 +6457,13 @@
         <v>2025</v>
       </c>
       <c r="I177" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J177" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K177" s="11" t="s">
         <v>119</v>
-      </c>
-      <c r="J177" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="K177" s="11" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="178" spans="1:11" ht="13.2">
@@ -6469,13 +6472,13 @@
         <v>8</v>
       </c>
       <c r="C178" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D178" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E178" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F178" s="9">
         <v>71.599999999999994</v>
@@ -6488,10 +6491,10 @@
       </c>
       <c r="I178" s="18"/>
       <c r="J178" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K178" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="179" spans="1:11" ht="13.2">
@@ -6500,13 +6503,13 @@
         <v>8</v>
       </c>
       <c r="C179" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D179" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D179" s="18" t="s">
-        <v>125</v>
-      </c>
       <c r="E179" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F179" s="9">
         <v>0.98</v>
@@ -6518,10 +6521,10 @@
         <v>2025</v>
       </c>
       <c r="J179" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K179" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="K179" s="11" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="180" spans="1:11" ht="13.2">
@@ -6530,13 +6533,13 @@
         <v>8</v>
       </c>
       <c r="C180" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D180" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="D180" s="18" t="s">
-        <v>127</v>
-      </c>
       <c r="E180" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F180" s="23">
         <v>0.97699999999999998</v>
@@ -6548,10 +6551,10 @@
         <v>2025</v>
       </c>
       <c r="J180" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="K180" s="11" t="s">
         <v>128</v>
-      </c>
-      <c r="K180" s="11" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="181" spans="1:11" ht="13.2">
@@ -6560,13 +6563,13 @@
         <v>8</v>
       </c>
       <c r="C181" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D181" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D181" s="10" t="s">
-        <v>131</v>
-      </c>
       <c r="E181" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F181" s="9">
         <v>0.93</v>
@@ -6578,25 +6581,25 @@
         <v>2025</v>
       </c>
       <c r="J181" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K181" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="K181" s="11" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="182" spans="1:11" ht="13.2">
       <c r="A182" s="1"/>
       <c r="B182" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C182" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="C182" s="24" t="s">
+      <c r="D182" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="D182" s="18" t="s">
-        <v>134</v>
-      </c>
       <c r="E182" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F182" s="25">
         <v>1.4215999999999999E-2</v>
@@ -6609,22 +6612,22 @@
       </c>
       <c r="J182" s="10"/>
       <c r="K182" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="183" spans="1:11" ht="13.2">
       <c r="A183" s="1"/>
       <c r="B183" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C183" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D183" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="D183" s="18" t="s">
-        <v>137</v>
-      </c>
       <c r="E183" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F183" s="25">
         <v>2.5900000000000001E-4</v>
@@ -6637,22 +6640,22 @@
       </c>
       <c r="J183" s="10"/>
       <c r="K183" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="184" spans="1:11" ht="13.2">
       <c r="A184" s="1"/>
       <c r="B184" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C184" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D184" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="D184" s="18" t="s">
-        <v>139</v>
-      </c>
       <c r="E184" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F184" s="25">
         <v>2.5900000000000001E-4</v>
@@ -6665,22 +6668,22 @@
       </c>
       <c r="J184" s="10"/>
       <c r="K184" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="185" spans="1:11" ht="13.2">
       <c r="A185" s="1"/>
       <c r="B185" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C185" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D185" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="D185" s="18" t="s">
-        <v>141</v>
-      </c>
       <c r="E185" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F185" s="25">
         <v>2.5900000000000001E-4</v>
@@ -6693,22 +6696,22 @@
       </c>
       <c r="J185" s="10"/>
       <c r="K185" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="186" spans="1:11" ht="13.2">
       <c r="A186" s="1"/>
       <c r="B186" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C186" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D186" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="D186" s="18" t="s">
-        <v>143</v>
-      </c>
       <c r="E186" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F186" s="25">
         <v>2.5900000000000001E-4</v>
@@ -6721,22 +6724,22 @@
       </c>
       <c r="J186" s="10"/>
       <c r="K186" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="187" spans="1:11" ht="13.2">
       <c r="A187" s="1"/>
       <c r="B187" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C187" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D187" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D187" s="7" t="s">
-        <v>145</v>
-      </c>
       <c r="E187" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F187" s="9">
         <v>1</v>
@@ -6749,16 +6752,16 @@
     <row r="188" spans="1:11" ht="13.2">
       <c r="A188" s="1"/>
       <c r="B188" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C188" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D188" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D188" s="10" t="s">
-        <v>147</v>
-      </c>
       <c r="E188" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F188" s="9">
         <v>1</v>
@@ -6774,13 +6777,13 @@
         <v>8</v>
       </c>
       <c r="C189" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D189" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="D189" s="18" t="s">
-        <v>106</v>
-      </c>
       <c r="E189" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F189" s="9">
         <v>199010</v>
@@ -6792,10 +6795,10 @@
         <v>2025</v>
       </c>
       <c r="J189" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K189" s="11" t="s">
         <v>107</v>
-      </c>
-      <c r="K189" s="11" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="190" spans="1:11" ht="13.2">
@@ -6804,13 +6807,13 @@
         <v>8</v>
       </c>
       <c r="C190" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D190" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="D190" s="28" t="s">
-        <v>110</v>
-      </c>
       <c r="E190" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F190" s="9">
         <v>10.1</v>
@@ -6822,13 +6825,13 @@
         <v>2025</v>
       </c>
       <c r="I190" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J190" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K190" s="11" t="s">
         <v>111</v>
-      </c>
-      <c r="J190" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="K190" s="11" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="191" spans="1:11" ht="13.2">
@@ -6837,13 +6840,13 @@
         <v>8</v>
       </c>
       <c r="C191" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D191" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D191" s="10" t="s">
-        <v>114</v>
-      </c>
       <c r="E191" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F191" s="9">
         <v>1.4999999999999999E-2</v>
@@ -6855,10 +6858,10 @@
         <v>2025</v>
       </c>
       <c r="J191" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K191" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="K191" s="11" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="192" spans="1:11" ht="13.2">
@@ -6867,13 +6870,13 @@
         <v>8</v>
       </c>
       <c r="C192" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D192" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D192" s="10" t="s">
-        <v>118</v>
-      </c>
       <c r="E192" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F192" s="9">
         <v>21.74</v>
@@ -6885,13 +6888,13 @@
         <v>2025</v>
       </c>
       <c r="I192" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J192" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K192" s="11" t="s">
         <v>119</v>
-      </c>
-      <c r="J192" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="K192" s="11" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="193" spans="1:11" ht="13.2">
@@ -6900,13 +6903,13 @@
         <v>8</v>
       </c>
       <c r="C193" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D193" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E193" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F193" s="9">
         <v>73.900000000000006</v>
@@ -6919,10 +6922,10 @@
       </c>
       <c r="I193" s="18"/>
       <c r="J193" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K193" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="194" spans="1:11" ht="13.2">
@@ -6931,13 +6934,13 @@
         <v>8</v>
       </c>
       <c r="C194" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D194" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D194" s="18" t="s">
-        <v>125</v>
-      </c>
       <c r="E194" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F194" s="9">
         <v>0.5</v>
@@ -6949,10 +6952,10 @@
         <v>2025</v>
       </c>
       <c r="J194" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K194" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="K194" s="11" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="195" spans="1:11" ht="13.2">
@@ -6961,13 +6964,13 @@
         <v>8</v>
       </c>
       <c r="C195" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D195" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="D195" s="18" t="s">
-        <v>127</v>
-      </c>
       <c r="E195" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F195" s="9">
         <v>0.98</v>
@@ -6979,10 +6982,10 @@
         <v>2025</v>
       </c>
       <c r="J195" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="K195" s="11" t="s">
         <v>128</v>
-      </c>
-      <c r="K195" s="11" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="196" spans="1:11" ht="13.2">
@@ -6991,13 +6994,13 @@
         <v>8</v>
       </c>
       <c r="C196" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D196" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D196" s="10" t="s">
-        <v>131</v>
-      </c>
       <c r="E196" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F196" s="9">
         <v>0.64</v>
@@ -7009,25 +7012,25 @@
         <v>2025</v>
       </c>
       <c r="J196" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K196" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="K196" s="11" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="197" spans="1:11" ht="13.2">
       <c r="A197" s="1"/>
       <c r="B197" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C197" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="C197" s="24" t="s">
+      <c r="D197" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="D197" s="18" t="s">
-        <v>134</v>
-      </c>
       <c r="E197" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F197" s="25">
         <v>2.1915E-2</v>
@@ -7039,25 +7042,25 @@
         <v>2025</v>
       </c>
       <c r="J197" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K197" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="198" spans="1:11" ht="13.2">
       <c r="A198" s="1"/>
       <c r="B198" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C198" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D198" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="D198" s="18" t="s">
-        <v>137</v>
-      </c>
       <c r="E198" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F198" s="25">
         <v>3.8299999999999999E-4</v>
@@ -7069,25 +7072,25 @@
         <v>2025</v>
       </c>
       <c r="J198" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K198" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="199" spans="1:11" ht="13.2">
       <c r="A199" s="1"/>
       <c r="B199" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C199" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D199" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="D199" s="18" t="s">
-        <v>139</v>
-      </c>
       <c r="E199" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F199" s="25">
         <v>3.8299999999999999E-4</v>
@@ -7099,25 +7102,25 @@
         <v>2025</v>
       </c>
       <c r="J199" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K199" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="200" spans="1:11" ht="13.2">
       <c r="A200" s="1"/>
       <c r="B200" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C200" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D200" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="D200" s="18" t="s">
-        <v>141</v>
-      </c>
       <c r="E200" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F200" s="25">
         <v>3.8299999999999999E-4</v>
@@ -7129,25 +7132,25 @@
         <v>2025</v>
       </c>
       <c r="J200" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K200" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="201" spans="1:11" ht="13.2">
       <c r="A201" s="1"/>
       <c r="B201" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C201" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D201" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="D201" s="18" t="s">
-        <v>143</v>
-      </c>
       <c r="E201" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F201" s="25">
         <v>3.8299999999999999E-4</v>
@@ -7159,25 +7162,25 @@
         <v>2025</v>
       </c>
       <c r="J201" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K201" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="202" spans="1:11" ht="13.2">
       <c r="A202" s="1"/>
       <c r="B202" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C202" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D202" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D202" s="7" t="s">
-        <v>145</v>
-      </c>
       <c r="E202" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F202" s="9">
         <v>1</v>
@@ -7190,16 +7193,16 @@
     <row r="203" spans="1:11" ht="13.2">
       <c r="A203" s="1"/>
       <c r="B203" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C203" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D203" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D203" s="10" t="s">
-        <v>147</v>
-      </c>
       <c r="E203" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F203" s="9">
         <v>1</v>
@@ -7215,13 +7218,13 @@
         <v>8</v>
       </c>
       <c r="C204" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D204" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="D204" s="18" t="s">
-        <v>106</v>
-      </c>
       <c r="E204" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F204" s="9">
         <v>33440</v>
@@ -7233,10 +7236,10 @@
         <v>2025</v>
       </c>
       <c r="J204" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K204" s="11" t="s">
         <v>107</v>
-      </c>
-      <c r="K204" s="11" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="205" spans="1:11" ht="13.2">
@@ -7245,13 +7248,13 @@
         <v>8</v>
       </c>
       <c r="C205" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D205" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="D205" s="28" t="s">
-        <v>110</v>
-      </c>
       <c r="E205" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F205" s="9">
         <v>4.2</v>
@@ -7263,13 +7266,13 @@
         <v>2025</v>
       </c>
       <c r="I205" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J205" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K205" s="11" t="s">
         <v>111</v>
-      </c>
-      <c r="J205" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="K205" s="11" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="206" spans="1:11" ht="13.2">
@@ -7278,13 +7281,13 @@
         <v>8</v>
       </c>
       <c r="C206" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D206" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D206" s="10" t="s">
-        <v>114</v>
-      </c>
       <c r="E206" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F206" s="9">
         <v>0.01</v>
@@ -7296,10 +7299,10 @@
         <v>2025</v>
       </c>
       <c r="J206" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K206" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="K206" s="11" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="207" spans="1:11" ht="13.2">
@@ -7308,13 +7311,13 @@
         <v>8</v>
       </c>
       <c r="C207" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D207" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D207" s="10" t="s">
-        <v>118</v>
-      </c>
       <c r="E207" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F207" s="9">
         <v>4.1100000000000003</v>
@@ -7326,13 +7329,13 @@
         <v>2025</v>
       </c>
       <c r="I207" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J207" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K207" s="11" t="s">
         <v>119</v>
-      </c>
-      <c r="J207" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="K207" s="11" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="208" spans="1:11" ht="13.2">
@@ -7341,13 +7344,13 @@
         <v>8</v>
       </c>
       <c r="C208" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D208" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E208" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F208" s="9">
         <v>71.599999999999994</v>
@@ -7360,10 +7363,10 @@
       </c>
       <c r="I208" s="18"/>
       <c r="J208" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K208" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="209" spans="1:11" ht="13.2">
@@ -7372,13 +7375,13 @@
         <v>8</v>
       </c>
       <c r="C209" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D209" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D209" s="18" t="s">
-        <v>125</v>
-      </c>
       <c r="E209" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F209" s="9">
         <v>1</v>
@@ -7390,10 +7393,10 @@
         <v>2025</v>
       </c>
       <c r="J209" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K209" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="K209" s="11" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="210" spans="1:11" ht="13.2">
@@ -7402,13 +7405,13 @@
         <v>8</v>
       </c>
       <c r="C210" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D210" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="D210" s="18" t="s">
-        <v>127</v>
-      </c>
       <c r="E210" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F210" s="9">
         <v>0.97199999999999998</v>
@@ -7420,10 +7423,10 @@
         <v>2025</v>
       </c>
       <c r="J210" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="K210" s="11" t="s">
         <v>128</v>
-      </c>
-      <c r="K210" s="11" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="211" spans="1:11" ht="13.2">
@@ -7432,13 +7435,13 @@
         <v>8</v>
       </c>
       <c r="C211" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D211" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D211" s="10" t="s">
-        <v>131</v>
-      </c>
       <c r="E211" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F211" s="9">
         <v>0.99</v>
@@ -7450,25 +7453,25 @@
         <v>2025</v>
       </c>
       <c r="J211" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K211" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="K211" s="11" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="212" spans="1:11" ht="13.2">
       <c r="A212" s="1"/>
       <c r="B212" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C212" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="C212" s="24" t="s">
+      <c r="D212" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="D212" s="18" t="s">
-        <v>134</v>
-      </c>
       <c r="E212" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F212" s="25">
         <v>4.3880000000000004E-3</v>
@@ -7480,25 +7483,25 @@
         <v>2025</v>
       </c>
       <c r="J212" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K212" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="213" spans="1:11" ht="13.2">
       <c r="A213" s="1"/>
       <c r="B213" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C213" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D213" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="D213" s="18" t="s">
-        <v>137</v>
-      </c>
       <c r="E213" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F213" s="25">
         <v>2.6600000000000001E-4</v>
@@ -7510,25 +7513,25 @@
         <v>2025</v>
       </c>
       <c r="J213" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K213" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="214" spans="1:11" ht="13.2">
       <c r="A214" s="1"/>
       <c r="B214" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C214" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D214" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="D214" s="18" t="s">
-        <v>139</v>
-      </c>
       <c r="E214" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F214" s="25">
         <v>2.6600000000000001E-4</v>
@@ -7540,25 +7543,25 @@
         <v>2025</v>
       </c>
       <c r="J214" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K214" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="215" spans="1:11" ht="13.2">
       <c r="A215" s="1"/>
       <c r="B215" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C215" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D215" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="D215" s="18" t="s">
-        <v>141</v>
-      </c>
       <c r="E215" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F215" s="25">
         <v>2.6600000000000001E-4</v>
@@ -7570,25 +7573,25 @@
         <v>2025</v>
       </c>
       <c r="J215" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K215" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="216" spans="1:11" ht="13.2">
       <c r="A216" s="1"/>
       <c r="B216" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C216" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D216" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="D216" s="18" t="s">
-        <v>143</v>
-      </c>
       <c r="E216" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F216" s="25">
         <v>2.6600000000000001E-4</v>
@@ -7600,25 +7603,25 @@
         <v>2025</v>
       </c>
       <c r="J216" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K216" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="217" spans="1:11" ht="13.2">
       <c r="A217" s="1"/>
       <c r="B217" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C217" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D217" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D217" s="7" t="s">
-        <v>145</v>
-      </c>
       <c r="E217" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F217" s="9">
         <v>1</v>
@@ -7627,16 +7630,16 @@
     <row r="218" spans="1:11" ht="13.2">
       <c r="A218" s="1"/>
       <c r="B218" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C218" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D218" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D218" s="10" t="s">
-        <v>147</v>
-      </c>
       <c r="E218" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F218" s="9">
         <v>1</v>
@@ -7944,9 +7947,8 @@
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Costo de Penicilina Benzatínica (2.400.000 UI)")</f>
         <v>Costo de Penicilina Benzatínica (2.400.000 UI)</v>
       </c>
-      <c r="E227" s="8" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BRASIL")</f>
-        <v>BRASIL</v>
+      <c r="E227" s="38" t="s">
+        <v>171</v>
       </c>
       <c r="F227" s="9">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.79211697393515)</f>
@@ -7980,9 +7982,8 @@
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Costo de 1 test VDRL")</f>
         <v>Costo de 1 test VDRL</v>
       </c>
-      <c r="E228" s="8" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BRASIL")</f>
-        <v>BRASIL</v>
+      <c r="E228" s="38" t="s">
+        <v>171</v>
       </c>
       <c r="F228" s="9">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.535184099548024)</f>
@@ -8016,9 +8017,8 @@
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Costo de 1 test Treponémico")</f>
         <v>Costo de 1 test Treponémico</v>
       </c>
-      <c r="E229" s="8" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BRASIL")</f>
-        <v>BRASIL</v>
+      <c r="E229" s="38" t="s">
+        <v>171</v>
       </c>
       <c r="F229" s="9">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.86589509383056)</f>
@@ -8052,9 +8052,8 @@
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Costo de 1 test Inmunocromatográfico para Sífilis")</f>
         <v>Costo de 1 test Inmunocromatográfico para Sífilis</v>
       </c>
-      <c r="E230" s="8" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BRASIL")</f>
-        <v>BRASIL</v>
+      <c r="E230" s="38" t="s">
+        <v>171</v>
       </c>
       <c r="F230" s="9">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.7)</f>
@@ -8088,9 +8087,8 @@
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Costo de 1 día de Hospitalización en Neonatología (UCIN vs NO UCIN?)")</f>
         <v>Costo de 1 día de Hospitalización en Neonatología (UCIN vs NO UCIN?)</v>
       </c>
-      <c r="E231" s="8" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BRASIL")</f>
-        <v>BRASIL</v>
+      <c r="E231" s="38" t="s">
+        <v>171</v>
       </c>
       <c r="F231" s="9">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),731.909904220579)</f>
@@ -8124,9 +8122,8 @@
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Costo de 100.000 UI de Penicilina G Sódica EV")</f>
         <v>Costo de 100.000 UI de Penicilina G Sódica EV</v>
       </c>
-      <c r="E232" s="8" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BRASIL")</f>
-        <v>BRASIL</v>
+      <c r="E232" s="38" t="s">
+        <v>171</v>
       </c>
       <c r="F232" s="9">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.136228501453233)</f>
@@ -8160,9 +8157,8 @@
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Costo de Evaluación de Neonato sospechoso")</f>
         <v>Costo de Evaluación de Neonato sospechoso</v>
       </c>
-      <c r="E233" s="8" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BRASIL")</f>
-        <v>BRASIL</v>
+      <c r="E233" s="38" t="s">
+        <v>171</v>
       </c>
       <c r="F233" s="9">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),10.4236122766044)</f>
@@ -8196,9 +8192,8 @@
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Costo Diagnostico de SC con sintomas o evaluación anormal")</f>
         <v>Costo Diagnostico de SC con sintomas o evaluación anormal</v>
       </c>
-      <c r="E234" s="8" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BRASIL")</f>
-        <v>BRASIL</v>
+      <c r="E234" s="38" t="s">
+        <v>171</v>
       </c>
       <c r="F234" s="9">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),26.3256380011144)</f>
@@ -10249,8 +10244,8 @@
         <v>Costo de Penicilina Benzatínica (2.400.000 UI)</v>
       </c>
       <c r="E291" s="8" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REPUBLICA DOMINICANA")</f>
-        <v>REPUBLICA DOMINICANA</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REPÚBLICA DOMINICANA")</f>
+        <v>REPÚBLICA DOMINICANA</v>
       </c>
       <c r="F291" s="9">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.59356907461809)</f>
@@ -10285,8 +10280,8 @@
         <v>Costo de 1 test VDRL</v>
       </c>
       <c r="E292" s="8" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REPUBLICA DOMINICANA")</f>
-        <v>REPUBLICA DOMINICANA</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REPÚBLICA DOMINICANA")</f>
+        <v>REPÚBLICA DOMINICANA</v>
       </c>
       <c r="F292" s="9">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.26071545529849)</f>
@@ -10321,8 +10316,8 @@
         <v>Costo de 1 test Treponémico</v>
       </c>
       <c r="E293" s="8" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REPUBLICA DOMINICANA")</f>
-        <v>REPUBLICA DOMINICANA</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REPÚBLICA DOMINICANA")</f>
+        <v>REPÚBLICA DOMINICANA</v>
       </c>
       <c r="F293" s="9">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.25379924468305)</f>
@@ -10357,8 +10352,8 @@
         <v>Costo de 1 test Inmunocromatográfico para Sífilis</v>
       </c>
       <c r="E294" s="8" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REPUBLICA DOMINICANA")</f>
-        <v>REPUBLICA DOMINICANA</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REPÚBLICA DOMINICANA")</f>
+        <v>REPÚBLICA DOMINICANA</v>
       </c>
       <c r="F294" s="9">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.7)</f>
@@ -10393,8 +10388,8 @@
         <v>Costo de 1 día de Hospitalización en Neonatología (UCIN vs NO UCIN?)</v>
       </c>
       <c r="E295" s="8" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REPUBLICA DOMINICANA")</f>
-        <v>REPUBLICA DOMINICANA</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REPÚBLICA DOMINICANA")</f>
+        <v>REPÚBLICA DOMINICANA</v>
       </c>
       <c r="F295" s="9">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),701.585274257922)</f>
@@ -10429,8 +10424,8 @@
         <v>Costo de 100.000 UI de Penicilina G Sódica EV</v>
       </c>
       <c r="E296" s="8" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REPUBLICA DOMINICANA")</f>
-        <v>REPUBLICA DOMINICANA</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REPÚBLICA DOMINICANA")</f>
+        <v>REPÚBLICA DOMINICANA</v>
       </c>
       <c r="F296" s="9">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.130584256344491)</f>
@@ -10465,8 +10460,8 @@
         <v>Costo de Evaluación de Neonato sospechoso</v>
       </c>
       <c r="E297" s="8" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REPUBLICA DOMINICANA")</f>
-        <v>REPUBLICA DOMINICANA</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REPÚBLICA DOMINICANA")</f>
+        <v>REPÚBLICA DOMINICANA</v>
       </c>
       <c r="F297" s="9">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.2211057391017)</f>
@@ -10501,8 +10496,8 @@
         <v>Costo Diagnostico de SC con sintomas o evaluación anormal</v>
       </c>
       <c r="E298" s="8" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REPUBLICA DOMINICANA")</f>
-        <v>REPUBLICA DOMINICANA</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"REPÚBLICA DOMINICANA")</f>
+        <v>REPÚBLICA DOMINICANA</v>
       </c>
       <c r="F298" s="9">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),106.221505671235)</f>
@@ -20200,8 +20195,8 @@
   </sheetPr>
   <dimension ref="B1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
@@ -20221,7 +20216,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="2:5">
@@ -20235,7 +20230,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="2:5">
@@ -20249,7 +20244,7 @@
         <v>19</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -20263,7 +20258,7 @@
         <v>21</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -20277,7 +20272,7 @@
         <v>23</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -20291,7 +20286,7 @@
         <v>28</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -20305,7 +20300,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -20319,7 +20314,7 @@
         <v>35</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -20333,7 +20328,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -20347,7 +20342,7 @@
         <v>41</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -20361,7 +20356,7 @@
         <v>44</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -20375,7 +20370,7 @@
         <v>47</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="2:5">
@@ -20389,7 +20384,7 @@
         <v>51</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="2:5">
@@ -20403,7 +20398,7 @@
         <v>53</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="2:5">
@@ -20417,7 +20412,7 @@
         <v>56</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="2:5">
@@ -20431,7 +20426,7 @@
         <v>59</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="2:5">
@@ -20445,7 +20440,7 @@
         <v>62</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="2:5">
@@ -20459,7 +20454,7 @@
         <v>64</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="2:5">
@@ -20473,7 +20468,7 @@
         <v>66</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="2:5">
@@ -20487,7 +20482,7 @@
         <v>68</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="2:5">
@@ -20501,7 +20496,7 @@
         <v>70</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="2:5">
@@ -20515,7 +20510,7 @@
         <v>72</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="2:5">
@@ -20529,7 +20524,7 @@
         <v>74</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="2:5">
@@ -20543,7 +20538,7 @@
         <v>76</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="2:5">
@@ -20557,7 +20552,7 @@
         <v>78</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="2:5">
@@ -20571,7 +20566,7 @@
         <v>80</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="2:5">
@@ -20585,7 +20580,7 @@
         <v>82</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="2:5">
@@ -20599,7 +20594,7 @@
         <v>84</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="2:5">
@@ -20613,7 +20608,7 @@
         <v>86</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="2:5">
@@ -20627,7 +20622,7 @@
         <v>88</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="2:5">
@@ -20635,13 +20630,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="E31" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="2:5">
@@ -20649,13 +20644,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="E32" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="2:5">
@@ -20663,13 +20658,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>114</v>
-      </c>
       <c r="E33" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="2:5">
@@ -20677,13 +20672,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>118</v>
-      </c>
       <c r="E34" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="2:5">
@@ -20691,13 +20686,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="D35" s="12" t="s">
-        <v>122</v>
-      </c>
       <c r="E35" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="2:5">
@@ -20705,13 +20700,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>125</v>
-      </c>
       <c r="E36" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="2:5">
@@ -20719,13 +20714,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>127</v>
-      </c>
       <c r="E37" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="2:5">
@@ -20733,111 +20728,111 @@
         <v>8</v>
       </c>
       <c r="C38" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>131</v>
-      </c>
       <c r="E38" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="2:5">
       <c r="B39" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="D39" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>134</v>
-      </c>
       <c r="E39" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="2:5">
       <c r="B40" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C40" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>137</v>
-      </c>
       <c r="E40" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="2:5">
       <c r="B41" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C41" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>139</v>
-      </c>
       <c r="E41" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="2:5">
       <c r="B42" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C42" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>141</v>
-      </c>
       <c r="E42" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="2:5">
       <c r="B43" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C43" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>143</v>
-      </c>
       <c r="E43" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="2:5">
       <c r="B44" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C44" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>145</v>
-      </c>
       <c r="E44" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="2:5">
       <c r="B45" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C45" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D45" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D45" s="10" t="s">
-        <v>147</v>
-      </c>
       <c r="E45" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="2:5">
@@ -20851,7 +20846,7 @@
         <v>91</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="2:5">
@@ -20865,7 +20860,7 @@
         <v>94</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="2:5">
@@ -20873,13 +20868,13 @@
         <v>89</v>
       </c>
       <c r="C48" s="30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D48" s="31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="2:5">
@@ -20887,13 +20882,13 @@
         <v>89</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="2:5">
@@ -20901,13 +20896,13 @@
         <v>89</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="2:5">
@@ -20915,13 +20910,13 @@
         <v>89</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="2:5">
@@ -20929,13 +20924,13 @@
         <v>89</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="2:5">
@@ -20943,13 +20938,13 @@
         <v>89</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54" spans="2:5">
@@ -20957,13 +20952,13 @@
         <v>89</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55" spans="2:5">
@@ -20971,13 +20966,13 @@
         <v>89</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="2:5">
